--- a/Tiempos Proyecto GBD.xlsx
+++ b/Tiempos Proyecto GBD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NELSON ARENAS\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7A40A2-1CFB-4DAA-8BE7-2C5C74867954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -76,30 +75,12 @@
     <t>17.047..17.051</t>
   </si>
   <si>
-    <t>397.76..400.76</t>
-  </si>
-  <si>
-    <t>22.841..22.855</t>
-  </si>
-  <si>
-    <t>333.45..336.45</t>
-  </si>
-  <si>
-    <t>24.032..24.049</t>
-  </si>
-  <si>
     <t>333.45..336.07</t>
   </si>
   <si>
-    <t>21.128..21.140</t>
-  </si>
-  <si>
     <t>425.33..425.34</t>
   </si>
   <si>
-    <t>26.912..26.916</t>
-  </si>
-  <si>
     <t>145.03..145.48</t>
   </si>
   <si>
@@ -131,12 +112,30 @@
   </si>
   <si>
     <t>Utilizando tabla desnormalizada</t>
+  </si>
+  <si>
+    <t>406.95..409.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.751..19.765 </t>
+  </si>
+  <si>
+    <t>324.26..327.26</t>
+  </si>
+  <si>
+    <t>11.127..11.140</t>
+  </si>
+  <si>
+    <t>16.170..16.179</t>
+  </si>
+  <si>
+    <t>17.442..17.446</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,20 +267,20 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>7</v>
@@ -663,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>10</v>
@@ -675,9 +674,9 @@
         <v>12</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -687,91 +686,91 @@
         <v>15</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="1" t="s">
+      <c r="J4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="1" t="s">
+      <c r="S4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="1" t="s">
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="1" t="s">
+      <c r="J5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="1" t="s">
+      <c r="O5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="1" t="s">
+      <c r="T5" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -790,7 +789,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
